--- a/data/paris.xlsx
+++ b/data/paris.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90322695-61ED-4C34-8928-B9C956F3F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA08E55-927B-41E3-8FE0-99A71AD5564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5518BE08-9494-4D45-B661-EDDB100F6D7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5518BE08-9494-4D45-B661-EDDB100F6D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,13 +382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB383D5A-6A2C-7347-8567-5500C1B8A9A6}">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="G353" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U367" sqref="U367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>2001</f>
         <v>2001</v>
@@ -478,7 +474,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5.8</v>
       </c>
@@ -543,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -608,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -673,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.6</v>
       </c>
@@ -738,7 +734,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -803,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -933,7 +929,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -998,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.2</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -1128,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1258,7 +1254,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1323,7 +1319,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1453,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1518,7 +1514,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.4</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1778,7 +1774,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>7.2</v>
       </c>
@@ -1843,7 +1839,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.2</v>
       </c>
@@ -1908,7 +1904,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>9.1999999999999993</v>
       </c>
@@ -1973,7 +1969,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7.4</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.8</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2233,7 +2229,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2363,7 +2359,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.4</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5.8</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2.8</v>
       </c>
@@ -2818,7 +2814,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2883,7 +2879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.4</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3078,7 +3074,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3273,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3403,7 +3399,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3533,7 +3529,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3663,7 +3659,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3728,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.2</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -4053,7 +4049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4118,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4183,7 +4179,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.2</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.6</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -4573,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4635,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.6</v>
       </c>
@@ -4759,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4.5999999999999996</v>
       </c>
@@ -4821,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4886,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6.6</v>
       </c>
@@ -4951,7 +4947,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1.2</v>
       </c>
@@ -5016,7 +5012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>3.2</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>3.2</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1.2</v>
       </c>
@@ -5211,7 +5207,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -5276,7 +5272,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -5341,7 +5337,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.4</v>
       </c>
@@ -5406,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5471,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -5536,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>12.8</v>
       </c>
@@ -5601,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5731,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5796,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>15.8</v>
       </c>
@@ -5861,7 +5857,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.8</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5991,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6056,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>6.6</v>
       </c>
@@ -6121,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -6186,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -6251,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -6316,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -6446,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.2</v>
       </c>
@@ -6511,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3.4</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>7.4</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5.8</v>
       </c>
@@ -6771,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3.4</v>
       </c>
@@ -6836,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1.2</v>
       </c>
@@ -6901,7 +6897,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1.8</v>
       </c>
@@ -6966,7 +6962,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.2</v>
       </c>
@@ -7031,7 +7027,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -7096,7 +7092,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -7161,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -7226,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1.4</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -7356,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -7421,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2.6</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.2</v>
       </c>
@@ -7551,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2.4</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -7681,7 +7677,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.4</v>
       </c>
@@ -7876,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2.4</v>
       </c>
@@ -7938,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.6</v>
       </c>
@@ -8000,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.2</v>
       </c>
@@ -8065,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -8195,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>3</v>
       </c>
@@ -8260,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1.4</v>
       </c>
@@ -8325,7 +8321,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.2</v>
       </c>
@@ -8390,7 +8386,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>8.4</v>
       </c>
@@ -8455,7 +8451,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -8520,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -8585,7 +8581,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8780,7 +8776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8845,7 +8841,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8907,7 +8903,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0</v>
       </c>
@@ -9037,7 +9033,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.4</v>
       </c>
@@ -9102,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3.8</v>
       </c>
@@ -9167,7 +9163,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.2</v>
       </c>
@@ -9232,7 +9228,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1</v>
       </c>
@@ -9297,7 +9293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.4</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.2</v>
       </c>
@@ -9427,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0</v>
       </c>
@@ -9492,7 +9488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9557,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0</v>
       </c>
@@ -9622,7 +9618,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0</v>
       </c>
@@ -9687,7 +9683,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0</v>
       </c>
@@ -9817,7 +9813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -9947,7 +9943,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -10012,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0</v>
       </c>
@@ -10142,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -10207,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -10272,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0</v>
       </c>
@@ -10337,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.8</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0</v>
       </c>
@@ -10467,7 +10463,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -10662,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>4.2</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.4</v>
       </c>
@@ -10792,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -10857,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -11052,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>5.2</v>
       </c>
@@ -11117,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -11182,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.4</v>
       </c>
@@ -11247,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.4</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.4</v>
       </c>
@@ -11377,7 +11373,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -11442,7 +11438,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0</v>
       </c>
@@ -11507,7 +11503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0</v>
       </c>
@@ -11637,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -11702,7 +11698,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0</v>
       </c>
@@ -11832,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>3</v>
       </c>
@@ -11962,7 +11958,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0</v>
       </c>
@@ -12027,7 +12023,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0</v>
       </c>
@@ -12092,7 +12088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0</v>
       </c>
@@ -12157,7 +12153,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0</v>
       </c>
@@ -12222,7 +12218,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0</v>
       </c>
@@ -12287,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0</v>
       </c>
@@ -12352,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0</v>
       </c>
@@ -12414,7 +12410,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>8.8000000000000007</v>
       </c>
@@ -12479,7 +12475,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.4</v>
       </c>
@@ -12544,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>68</v>
       </c>
@@ -12606,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>6.6</v>
       </c>
@@ -12671,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.6</v>
       </c>
@@ -12736,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.6</v>
       </c>
@@ -12801,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>7.2</v>
       </c>
@@ -12866,7 +12862,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.6</v>
       </c>
@@ -12931,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1.6</v>
       </c>
@@ -12996,7 +12992,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>7.4</v>
       </c>
@@ -13061,7 +13057,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>21.2</v>
       </c>
@@ -13126,7 +13122,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.8</v>
       </c>
@@ -13191,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.2</v>
       </c>
@@ -13256,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>3.6</v>
       </c>
@@ -13321,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>12.4</v>
       </c>
@@ -13386,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.2</v>
       </c>
@@ -13451,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0</v>
       </c>
@@ -13581,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0</v>
       </c>
@@ -13646,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0</v>
       </c>
@@ -13711,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0</v>
       </c>
@@ -13776,7 +13772,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0</v>
       </c>
@@ -13841,7 +13837,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0</v>
       </c>
@@ -13906,7 +13902,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.4</v>
       </c>
@@ -13971,7 +13967,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0</v>
       </c>
@@ -14101,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0</v>
       </c>
@@ -14166,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -14231,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0</v>
       </c>
@@ -14296,7 +14292,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>11</v>
       </c>
@@ -14361,7 +14357,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0</v>
       </c>
@@ -14426,7 +14422,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0</v>
       </c>
@@ -14491,7 +14487,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1.2</v>
       </c>
@@ -14556,7 +14552,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.2</v>
       </c>
@@ -14621,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>5</v>
       </c>
@@ -14686,7 +14682,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0</v>
       </c>
@@ -14751,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0</v>
       </c>
@@ -14816,7 +14812,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0</v>
       </c>
@@ -14881,7 +14877,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0</v>
       </c>
@@ -14946,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0</v>
       </c>
@@ -15011,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0</v>
       </c>
@@ -15076,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0</v>
       </c>
@@ -15141,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2.2000000000000002</v>
       </c>
@@ -15206,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0</v>
       </c>
@@ -15271,7 +15267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0</v>
       </c>
@@ -15336,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0</v>
       </c>
@@ -15401,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>9</v>
       </c>
@@ -15466,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0</v>
       </c>
@@ -15531,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0</v>
       </c>
@@ -15596,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0</v>
       </c>
@@ -15661,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0</v>
       </c>
@@ -15726,7 +15722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0</v>
       </c>
@@ -15791,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0</v>
       </c>
@@ -15856,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0</v>
       </c>
@@ -15986,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0</v>
       </c>
@@ -16051,7 +16047,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0</v>
       </c>
@@ -16116,7 +16112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2.4</v>
       </c>
@@ -16181,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.6</v>
       </c>
@@ -16246,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.2</v>
       </c>
@@ -16311,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0</v>
       </c>
@@ -16376,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1.8</v>
       </c>
@@ -16441,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>11.2</v>
       </c>
@@ -16506,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.2</v>
       </c>
@@ -16571,7 +16567,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2.2000000000000002</v>
       </c>
@@ -16636,7 +16632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0</v>
       </c>
@@ -16701,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>4.2</v>
       </c>
@@ -16766,7 +16762,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0</v>
       </c>
@@ -16831,7 +16827,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0</v>
       </c>
@@ -16896,7 +16892,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0</v>
       </c>
@@ -16961,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0.4</v>
       </c>
@@ -17026,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>6.4</v>
       </c>
@@ -17091,7 +17087,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0</v>
       </c>
@@ -17156,7 +17152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.2</v>
       </c>
@@ -17221,7 +17217,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1</v>
       </c>
@@ -17286,7 +17282,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>12.6</v>
       </c>
@@ -17351,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0.2</v>
       </c>
@@ -17416,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>3.2</v>
       </c>
@@ -17481,7 +17477,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1</v>
       </c>
@@ -17546,7 +17542,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.2</v>
       </c>
@@ -17611,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0</v>
       </c>
@@ -17676,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.6</v>
       </c>
@@ -17741,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>0.4</v>
       </c>
@@ -17806,7 +17802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.2</v>
       </c>
@@ -17871,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>5.2</v>
       </c>
@@ -17936,7 +17932,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.2</v>
       </c>
@@ -18001,7 +17997,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.4</v>
       </c>
@@ -18066,7 +18062,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>3.8</v>
       </c>
@@ -18131,7 +18127,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1.2</v>
       </c>
@@ -18196,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0</v>
       </c>
@@ -18261,7 +18257,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0.2</v>
       </c>
@@ -18326,7 +18322,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>3</v>
       </c>
@@ -18391,7 +18387,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0</v>
       </c>
@@ -18456,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0</v>
       </c>
@@ -18521,7 +18517,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>3.4</v>
       </c>
@@ -18586,7 +18582,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>0.8</v>
       </c>
@@ -18651,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.2</v>
       </c>
@@ -18716,7 +18712,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0</v>
       </c>
@@ -18781,7 +18777,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0</v>
       </c>
@@ -18846,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0</v>
       </c>
@@ -18911,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0</v>
       </c>
@@ -18976,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0</v>
       </c>
@@ -19041,7 +19037,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0</v>
       </c>
@@ -19106,7 +19102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0</v>
       </c>
@@ -19171,7 +19167,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0</v>
       </c>
@@ -19236,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0</v>
       </c>
@@ -19301,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0</v>
       </c>
@@ -19366,7 +19362,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.8</v>
       </c>
@@ -19431,7 +19427,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>13.4</v>
       </c>
@@ -19496,7 +19492,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1.8</v>
       </c>
@@ -19561,7 +19557,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.2</v>
       </c>
@@ -19626,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0</v>
       </c>
@@ -19691,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1.2</v>
       </c>
@@ -19756,7 +19752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.2</v>
       </c>
@@ -19821,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>3.6</v>
       </c>
@@ -19886,7 +19882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.6</v>
       </c>
@@ -19951,7 +19947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0</v>
       </c>
@@ -20016,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0</v>
       </c>
@@ -20081,7 +20077,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0</v>
       </c>
@@ -20146,7 +20142,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0</v>
       </c>
@@ -20211,7 +20207,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0</v>
       </c>
@@ -20273,7 +20269,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0</v>
       </c>
@@ -20335,7 +20331,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0.2</v>
       </c>
@@ -20397,7 +20393,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0</v>
       </c>
@@ -20459,7 +20455,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0</v>
       </c>
@@ -20521,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0</v>
       </c>
@@ -20586,7 +20582,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1.4</v>
       </c>
@@ -20651,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>3.4</v>
       </c>
@@ -20716,7 +20712,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>0</v>
       </c>
@@ -20781,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>0</v>
       </c>
@@ -20843,7 +20839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>0.2</v>
       </c>
@@ -20905,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>4.2</v>
       </c>
@@ -20970,7 +20966,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>0.2</v>
       </c>
@@ -21035,7 +21031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>0</v>
       </c>
@@ -21100,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>0</v>
       </c>
@@ -21165,7 +21161,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>0</v>
       </c>
@@ -21230,7 +21226,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>0</v>
       </c>
@@ -21295,7 +21291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>0</v>
       </c>
@@ -21360,7 +21356,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>0</v>
       </c>
@@ -21425,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>0</v>
       </c>
@@ -21490,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>0</v>
       </c>
@@ -21555,7 +21551,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1.2</v>
       </c>
@@ -21620,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1.4</v>
       </c>
@@ -21685,7 +21681,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>0.6</v>
       </c>
@@ -21750,7 +21746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1.2</v>
       </c>
@@ -21815,7 +21811,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>5.4</v>
       </c>
@@ -21880,7 +21876,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>0.4</v>
       </c>
@@ -21945,7 +21941,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>0</v>
       </c>
@@ -22010,7 +22006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>6.8</v>
       </c>
@@ -22075,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1.6</v>
       </c>
@@ -22140,7 +22136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>0.2</v>
       </c>
@@ -22205,7 +22201,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>0</v>
       </c>
@@ -22270,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>0.8</v>
       </c>
@@ -22335,7 +22331,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1</v>
       </c>
@@ -22400,7 +22396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>2.2000000000000002</v>
       </c>
@@ -22465,7 +22461,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>0</v>
       </c>
@@ -22530,7 +22526,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>0</v>
       </c>
@@ -22595,7 +22591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>0</v>
       </c>
@@ -22660,7 +22656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>0</v>
       </c>
@@ -22725,7 +22721,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>0</v>
       </c>
@@ -22790,7 +22786,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>0</v>
       </c>
@@ -22855,7 +22851,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>0</v>
       </c>
@@ -22920,7 +22916,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>0</v>
       </c>
@@ -22985,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>0</v>
       </c>
@@ -23050,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>0</v>
       </c>
@@ -23115,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>0</v>
       </c>
@@ -23180,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>0</v>
       </c>
@@ -23245,7 +23241,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>0</v>
       </c>
@@ -23310,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1</v>
       </c>
@@ -23375,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>0.2</v>
       </c>
@@ -23440,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>0.2</v>
       </c>
@@ -23505,7 +23501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>0</v>
       </c>
@@ -23570,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>0</v>
       </c>
@@ -23635,7 +23631,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>0.2</v>
       </c>
@@ -23700,7 +23696,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>4.8</v>
       </c>
@@ -23765,7 +23761,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>0</v>
       </c>
@@ -23830,7 +23826,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1.4</v>
       </c>
@@ -23895,7 +23891,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1.6</v>
       </c>
@@ -23960,7 +23956,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>15.6</v>
       </c>
@@ -24025,7 +24021,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>0</v>
       </c>
@@ -24090,7 +24086,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>0</v>
       </c>
@@ -24155,21 +24151,69 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
       <c r="D367">
         <v>0.2</v>
       </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
       <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
         <v>0</v>
       </c>
       <c r="L367">
         <v>8.1999999999999993</v>
       </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
       <c r="P367">
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367">
         <v>0</v>
       </c>
       <c r="T367">
         <v>0.8</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
